--- a/biology/Botanique/Dipteryx_odorata/Dipteryx_odorata.xlsx
+++ b/biology/Botanique/Dipteryx_odorata/Dipteryx_odorata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dipteryx odorata est une espèce de plantes dicotylédones de la famille des Fabaceae (Leguminosae), sous-famille des Faboideae , originaire d'Amérique du Sud.
 Ce sont de grands arbres exploités et cultivés tant pour leur bois (commercialisé sous le nom de cumaru), que pour leurs graines aromatiques (fèves de Tonka).
@@ -512,9 +524,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bois coumarou, diptéryx odorant, fève de Tonka, gaïac de Cayenne[2], faux gaïac[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bois coumarou, diptéryx odorant, fève de Tonka, gaïac de Cayenne, faux gaïac.</t>
         </is>
       </c>
     </row>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipteryx odorata est un arbre à feuilles caduques de grande taille, pouvant atteindre 25 à 30 mètres de haut pour un diamètre de tronc d'environ 1 m, à la couronne petite et ronde, et à l'écorce lisse et grise. Les feuilles alternes, composées  pennées, sont  lustrées et vert foncé. Les fleurs, de type papilionacé,  sont de couleur blanche à rose[4]. 
-Les graines noires et ridées, sont riches en coumarine et dégagent un parfum prononcé[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipteryx odorata est un arbre à feuilles caduques de grande taille, pouvant atteindre 25 à 30 mètres de haut pour un diamètre de tronc d'environ 1 m, à la couronne petite et ronde, et à l'écorce lisse et grise. Les feuilles alternes, composées  pennées, sont  lustrées et vert foncé. Les fleurs, de type papilionacé,  sont de couleur blanche à rose. 
+Les graines noires et ridées, sont riches en coumarine et dégagent un parfum prononcé. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Histoire naturaliste</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans son "Histoire des Plantes de la Guiane françoise" (1775)[6], Jean Baptiste Christian Fusée-Aublet en dit ceci :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son "Histoire des Plantes de la Guiane françoise" (1775), Jean Baptiste Christian Fusée-Aublet en dit ceci :
 «Le tronc de cet arbre s'élève a ſoixante, &amp; même juſqu'à quatrevingt pieds, ſur environ trois pieds &amp; demi de diamètre. Son écorce eſt dure, liſſe &amp; blanchâtre. Son bois extérieur eſt blanc, l'intérieur eſt de couleur brune ; l'un &amp; l'autre ſont durs &amp; compactes. Ce tronc pouſſe à ſon ſommet un grand nombre de groſſes branches tortueuſes &amp; rameuſes qui s'élèvent &amp; s'étendent en tous ſens. Les rameaux ſont garnis de feuilles alternes, ailées à deux rangs de folioles alternes, portées ſur une côte rouſſâtre, longue de quatorze pouces. Elle eſt convexe en deſſous, &amp; applatie en deſſus, bordée de deux côtes d'un petit feuillet, &amp; creuſée en demi-canal au deſſous des folioles : elle eſt terminée par une longue pointe. Les folioles ſont au nombre de deux ou de trois de chaque côte ; elles ſont entières, verdâtres, liſſes, fermés, ovales, terminées en pointe. Leur pédicule eſt très court, &amp; comme articule ſur la côte-, la nervure longitudinale, qui eſt peu ſaillante, ne les partage pas en deux portions égales. 
 Les fleurs naiſſent par grappes aux aiſſelles des feuilles, &amp; à l'extrémité des rameaux.
 Le calice eſt d'une ſeule pièce rougeâtre, arrondi a ſa baie, &amp; diviſe en trois parties, dont deux ſupérieures, fort larges, épaiſſes &amp; concaves ; l'inférieure eſt très courte &amp; obtuse. 
